--- a/data/trans_orig/IP08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2545F6-944F-46B5-95B9-C2D622F2740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E838B807-B671-45BB-8EEB-6E765B42E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E08A7119-E474-4BF5-8C85-09B3ADAC390B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A68F09AE-DBC6-49F3-95E4-EFF245343473}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -185,63 +242,6 @@
     <t>9,42%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
     <t>88,44%</t>
   </si>
   <si>
@@ -353,6 +353,60 @@
     <t>19,42%</t>
   </si>
   <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
     <t>88,61%</t>
   </si>
   <si>
@@ -362,9 +416,6 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>91,48%</t>
-  </si>
-  <si>
     <t>88,66%</t>
   </si>
   <si>
@@ -389,9 +440,6 @@
     <t>14,86%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
     <t>5,98%</t>
   </si>
   <si>
@@ -407,54 +455,6 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
     <t>86,41%</t>
   </si>
   <si>
@@ -548,6 +548,60 @@
     <t>12,26%</t>
   </si>
   <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
     <t>94,43%</t>
   </si>
   <si>
@@ -596,60 +650,6 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
     <t>93,06%</t>
   </si>
   <si>
@@ -749,6 +749,48 @@
     <t>17,83%</t>
   </si>
   <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
     <t>88,53%</t>
   </si>
   <si>
@@ -801,48 +843,6 @@
   </si>
   <si>
     <t>14,43%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
   </si>
   <si>
     <t>87,62%</t>
@@ -1288,7 +1288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904C7D1-E39F-4593-A971-87B60AD2A761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B95765-0CF3-408F-9AAA-434F9BD5A3FD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1561,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="D7" s="7">
-        <v>255391</v>
+        <v>191864</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1576,10 +1576,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="I7" s="7">
-        <v>250108</v>
+        <v>182638</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1591,10 +1591,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>754</v>
+        <v>563</v>
       </c>
       <c r="N7" s="7">
-        <v>505499</v>
+        <v>374502</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1603,7 +1603,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,49 +1612,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>25412</v>
+        <v>26177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>15495</v>
+        <v>22584</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>40907</v>
+        <v>48761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,10 +1663,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>280803</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1678,10 +1678,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1693,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>815</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>546406</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1710,55 +1710,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>291</v>
+        <v>383</v>
       </c>
       <c r="D10" s="7">
-        <v>191864</v>
+        <v>255391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="I10" s="7">
-        <v>182638</v>
+        <v>250108</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>563</v>
+        <v>754</v>
       </c>
       <c r="N10" s="7">
-        <v>374502</v>
+        <v>505499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,46 +1767,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>26177</v>
+        <v>25412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>22584</v>
+        <v>15495</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>71</v>
-      </c>
       <c r="N11" s="7">
-        <v>48761</v>
+        <v>40907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1818,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>280803</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1833,10 +1833,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1848,10 +1848,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>815</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>546406</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2034,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE77174-E457-4B31-9B3E-E3FF1BE4C7FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99544A46-3596-4967-BEDC-AE5B55B3DF88}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,10 +2307,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="D7" s="7">
-        <v>241326</v>
+        <v>212710</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>104</v>
@@ -2322,10 +2322,10 @@
         <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="I7" s="7">
-        <v>234555</v>
+        <v>202634</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>107</v>
@@ -2337,10 +2337,10 @@
         <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>689</v>
+        <v>579</v>
       </c>
       <c r="N7" s="7">
-        <v>475881</v>
+        <v>415344</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>110</v>
@@ -2358,10 +2358,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>31026</v>
+        <v>29281</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>113</v>
@@ -2373,10 +2373,10 @@
         <v>115</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7">
-        <v>21856</v>
+        <v>26838</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>116</v>
@@ -2391,7 +2391,7 @@
         <v>77</v>
       </c>
       <c r="N8" s="7">
-        <v>52882</v>
+        <v>56119</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>119</v>
@@ -2409,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7">
-        <v>272352</v>
+        <v>241991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2424,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2439,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="N9" s="7">
-        <v>528763</v>
+        <v>471463</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2456,16 +2456,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="D10" s="7">
-        <v>212710</v>
+        <v>241326</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>122</v>
@@ -2477,25 +2477,25 @@
         <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="I10" s="7">
-        <v>202634</v>
+        <v>234555</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="M10" s="7">
-        <v>579</v>
+        <v>689</v>
       </c>
       <c r="N10" s="7">
-        <v>415344</v>
+        <v>475881</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>127</v>
@@ -2513,10 +2513,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>29281</v>
+        <v>31026</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>130</v>
@@ -2528,16 +2528,16 @@
         <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>26838</v>
+        <v>21856</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>134</v>
@@ -2546,7 +2546,7 @@
         <v>77</v>
       </c>
       <c r="N11" s="7">
-        <v>56119</v>
+        <v>52882</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2564,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D12" s="7">
-        <v>241991</v>
+        <v>272352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2579,10 +2579,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2594,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="N12" s="7">
-        <v>471463</v>
+        <v>528763</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2780,7 +2780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B57418-233C-4B13-819B-9F32BA5802FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBFB04E-3875-4BA2-8672-4C6DC7780EC3}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2904,7 +2904,7 @@
         <v>191236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>153</v>
@@ -2955,7 +2955,7 @@
         <v>21248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>161</v>
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D7" s="7">
-        <v>265933</v>
+        <v>233156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>169</v>
@@ -3068,34 +3068,34 @@
         <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="I7" s="7">
-        <v>252005</v>
+        <v>219807</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>713</v>
+        <v>676</v>
       </c>
       <c r="N7" s="7">
-        <v>517938</v>
+        <v>452964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,46 +3107,46 @@
         <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>15696</v>
+        <v>14502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>15000</v>
+        <v>14625</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>30696</v>
+        <v>29127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,10 +3155,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>247658</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3170,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="I9" s="7">
-        <v>267005</v>
+        <v>234432</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3185,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="N9" s="7">
-        <v>548634</v>
+        <v>482091</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3202,55 +3202,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="D10" s="7">
-        <v>233156</v>
+        <v>265933</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="I10" s="7">
-        <v>219807</v>
+        <v>252005</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
-        <v>676</v>
+        <v>713</v>
       </c>
       <c r="N10" s="7">
-        <v>452964</v>
+        <v>517938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,37 +3262,37 @@
         <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>14502</v>
+        <v>15696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>14625</v>
+        <v>15000</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M11" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>29127</v>
+        <v>30696</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>200</v>
@@ -3310,10 +3310,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>247658</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3325,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="I12" s="7">
-        <v>234432</v>
+        <v>267005</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3340,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="N12" s="7">
-        <v>482091</v>
+        <v>548634</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3375,7 +3375,7 @@
         <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>985</v>
@@ -3405,7 +3405,7 @@
         <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,7 +3423,7 @@
         <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>211</v>
@@ -3453,7 +3453,7 @@
         <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>216</v>
@@ -3526,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8D2C71-8026-412B-8C00-0610DC081E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549ECAA-22F4-4AD0-8C9A-F1158CF43499}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,10 +3799,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>427</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>354571</v>
+        <v>180546</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>236</v>
@@ -3814,10 +3814,10 @@
         <v>238</v>
       </c>
       <c r="H7" s="7">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="I7" s="7">
-        <v>313233</v>
+        <v>186562</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>239</v>
@@ -3829,19 +3829,19 @@
         <v>241</v>
       </c>
       <c r="M7" s="7">
-        <v>838</v>
+        <v>501</v>
       </c>
       <c r="N7" s="7">
-        <v>667804</v>
+        <v>367109</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,49 +3850,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>45926</v>
+        <v>24509</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11705</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="7">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7">
-        <v>37099</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>51</v>
+      </c>
+      <c r="N8" s="7">
+        <v>36214</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M8" s="7">
-        <v>100</v>
-      </c>
-      <c r="N8" s="7">
-        <v>83025</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>477</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>400497</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3916,10 +3916,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350332</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3931,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>938</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>750829</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3948,55 +3948,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>237</v>
+        <v>427</v>
       </c>
       <c r="D10" s="7">
-        <v>180546</v>
+        <v>354571</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="7">
+        <v>411</v>
+      </c>
+      <c r="I10" s="7">
+        <v>313233</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>838</v>
+      </c>
+      <c r="N10" s="7">
+        <v>667804</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="7">
-        <v>264</v>
-      </c>
-      <c r="I10" s="7">
-        <v>186562</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M10" s="7">
-        <v>501</v>
-      </c>
-      <c r="N10" s="7">
-        <v>367109</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,49 +4005,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>24509</v>
+        <v>45926</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7">
+        <v>37099</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11705</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>100</v>
+      </c>
+      <c r="N11" s="7">
+        <v>83025</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="M11" s="7">
-        <v>51</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36214</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>400497</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4071,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350332</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4086,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>938</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>750829</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E838B807-B671-45BB-8EEB-6E765B42E9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4D273A-BC1A-4791-BD4D-427D39031FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A68F09AE-DBC6-49F3-95E4-EFF245343473}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4897BCB5-BBA4-4F78-B1E8-94EF556ABC46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="286">
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,835 +68,1039 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>84,62%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
 </sst>
 </file>
@@ -907,7 +1111,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1003,39 +1207,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1087,7 +1291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1198,13 +1402,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1213,6 +1410,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1277,19 +1481,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B95765-0CF3-408F-9AAA-434F9BD5A3FD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DCE1B-32DB-43A5-B6E3-78C857C7A4E9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1406,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>287</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>191273</v>
+        <v>15530</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1421,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>192032</v>
+        <v>10005</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1436,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>579</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>383304</v>
+        <v>25535</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1457,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>31888</v>
+        <v>105850</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1472,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I5" s="7">
-        <v>18164</v>
+        <v>96166</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1487,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="N5" s="7">
-        <v>50053</v>
+        <v>202016</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1508,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1523,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1538,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1561,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>191864</v>
+        <v>35141</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1576,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>182638</v>
+        <v>24665</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1591,10 +1815,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>563</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>374502</v>
+        <v>59806</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1612,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>26177</v>
+        <v>218615</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1627,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>22584</v>
+        <v>228540</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1642,10 +1866,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>673</v>
       </c>
       <c r="N8" s="7">
-        <v>48761</v>
+        <v>447155</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1663,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1678,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1693,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1716,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>383</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>255391</v>
+        <v>15038</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1731,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>250108</v>
+        <v>13699</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1746,19 +1970,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>754</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>505499</v>
+        <v>28737</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,10 +1991,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>25412</v>
+        <v>125782</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1782,10 +2006,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I11" s="7">
-        <v>15495</v>
+        <v>113849</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1797,16 +2021,16 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="N11" s="7">
-        <v>40907</v>
+        <v>239631</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1818,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>280803</v>
+        <v>140820</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1833,10 +2057,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1848,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>815</v>
+        <v>402</v>
       </c>
       <c r="N12" s="7">
-        <v>546406</v>
+        <v>268368</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1865,55 +2089,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>961</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>638527</v>
+        <v>17769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>935</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>624778</v>
+        <v>7874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>1896</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>1263305</v>
+        <v>25643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,49 +2146,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>83478</v>
+        <v>188280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
+        <v>274</v>
+      </c>
+      <c r="I14" s="7">
+        <v>186223</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="7">
+        <v>557</v>
+      </c>
+      <c r="N14" s="7">
+        <v>374503</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="7">
-        <v>207</v>
-      </c>
-      <c r="N14" s="7">
-        <v>139721</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,55 +2197,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>124</v>
+      </c>
+      <c r="D16" s="7">
+        <v>83478</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>83</v>
+      </c>
+      <c r="I16" s="7">
+        <v>56243</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>207</v>
+      </c>
+      <c r="N16" s="7">
+        <v>139721</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>961</v>
+      </c>
+      <c r="D17" s="7">
+        <v>638527</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>935</v>
+      </c>
+      <c r="I17" s="7">
+        <v>624778</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1896</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1263305</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1085</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722005</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2103</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403026</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2034,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99544A46-3596-4967-BEDC-AE5B55B3DF88}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AB69E7-B120-48BC-B11E-1773C8E1F260}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2051,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2152,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>197051</v>
+        <v>24939</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>190599</v>
+        <v>21008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>564</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>387650</v>
+        <v>45947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>42113</v>
+        <v>121051</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>34175</v>
+        <v>125019</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>112</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>76288</v>
+        <v>246070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7">
-        <v>239164</v>
+        <v>145990</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2269,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224774</v>
+        <v>146027</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2284,10 +2669,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>676</v>
+        <v>425</v>
       </c>
       <c r="N6" s="7">
-        <v>463938</v>
+        <v>292017</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2307,49 +2692,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>212710</v>
+        <v>38421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>202634</v>
+        <v>28288</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>579</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>415344</v>
+        <v>66709</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>29281</v>
+        <v>230570</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="I8" s="7">
-        <v>26838</v>
+        <v>207962</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>619</v>
       </c>
       <c r="N8" s="7">
-        <v>56119</v>
+        <v>438532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2424,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>471463</v>
+        <v>505241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2462,49 +2847,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>241326</v>
+        <v>14961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>333</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>234555</v>
+        <v>20199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>689</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>475881</v>
+        <v>35160</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,49 +2898,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>31026</v>
+        <v>143610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="I11" s="7">
-        <v>21856</v>
+        <v>136844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="N11" s="7">
-        <v>52882</v>
+        <v>280454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>272352</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2579,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2979,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>528763</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2611,55 +2996,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>930</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>651088</v>
+        <v>24098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>902</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>627788</v>
+        <v>13375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
-        <v>1832</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>1278875</v>
+        <v>37473</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,49 +3053,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>102419</v>
+        <v>155857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
-        <v>82869</v>
+        <v>157962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>266</v>
+        <v>453</v>
       </c>
       <c r="N14" s="7">
-        <v>185289</v>
+        <v>313819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,55 +3104,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>508</v>
+      </c>
+      <c r="N15" s="7">
+        <v>351292</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>144</v>
+      </c>
+      <c r="D16" s="7">
+        <v>102419</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>122</v>
+      </c>
+      <c r="I16" s="7">
+        <v>82869</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="7">
+        <v>266</v>
+      </c>
+      <c r="N16" s="7">
+        <v>185289</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>930</v>
+      </c>
+      <c r="D17" s="7">
+        <v>651088</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
+        <v>902</v>
+      </c>
+      <c r="I17" s="7">
+        <v>627788</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1832</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1278875</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1074</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>753507</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1024</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>710657</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2098</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1464164</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2780,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBFB04E-3875-4BA2-8672-4C6DC7780EC3}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0DFFAE-FEEB-4ED6-ACA3-CBCB6B1DF861}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2797,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2898,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>191236</v>
+        <v>12631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>182770</v>
+        <v>9682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>583</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>374005</v>
+        <v>22313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7">
-        <v>21248</v>
+        <v>111533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>18021</v>
+        <v>121496</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="N5" s="7">
-        <v>39270</v>
+        <v>233028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>212484</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3015,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>200791</v>
+        <v>131178</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3030,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>645</v>
+        <v>397</v>
       </c>
       <c r="N6" s="7">
-        <v>413275</v>
+        <v>255341</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3053,49 +3599,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>339</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>233156</v>
+        <v>21069</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>219807</v>
+        <v>18516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
-        <v>676</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>452964</v>
+        <v>39585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,49 +3650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>345</v>
       </c>
       <c r="D8" s="7">
-        <v>14502</v>
+        <v>233919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="I8" s="7">
-        <v>14625</v>
+        <v>191100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>647</v>
       </c>
       <c r="N8" s="7">
-        <v>29127</v>
+        <v>425019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D9" s="7">
-        <v>247658</v>
+        <v>254988</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3170,10 +3716,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>234432</v>
+        <v>209616</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3185,10 +3731,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="N9" s="7">
-        <v>482091</v>
+        <v>464604</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3208,49 +3754,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>265933</v>
+        <v>5931</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>252005</v>
+        <v>8903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>713</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>517938</v>
+        <v>14834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,49 +3805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="D11" s="7">
-        <v>15696</v>
+        <v>182641</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>15000</v>
+        <v>179996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="N11" s="7">
-        <v>30696</v>
+        <v>362637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3325,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267005</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3340,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>548634</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3357,55 +3903,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>987</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>690325</v>
+        <v>11816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>985</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>654581</v>
+        <v>10545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>1972</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>1344907</v>
+        <v>22361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,49 +3960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>51447</v>
+        <v>162232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>47647</v>
+        <v>161990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>99093</v>
+        <v>324222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,55 +4011,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>245</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172535</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346583</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7">
+        <v>51447</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="7">
+        <v>73</v>
+      </c>
+      <c r="I16" s="7">
+        <v>47647</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="7">
+        <v>147</v>
+      </c>
+      <c r="N16" s="7">
+        <v>99093</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>987</v>
+      </c>
+      <c r="D17" s="7">
+        <v>690325</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="7">
+        <v>985</v>
+      </c>
+      <c r="I17" s="7">
+        <v>654581</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1972</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1344907</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1061</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>741772</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1058</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>702228</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2119</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1444000</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3526,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549ECAA-22F4-4AD0-8C9A-F1158CF43499}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FDD337-7AFF-431B-8BB0-AE9C83AB3017}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3543,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>98822</v>
+        <v>10441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>91731</v>
+        <v>8184</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>368</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>190553</v>
+        <v>18625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>19116</v>
+        <v>48062</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I5" s="7">
-        <v>12072</v>
+        <v>49185</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="N5" s="7">
-        <v>31188</v>
+        <v>97246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3761,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3776,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3799,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>180546</v>
+        <v>21229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>186562</v>
+        <v>9501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>501</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>367109</v>
+        <v>30729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="D8" s="7">
-        <v>24509</v>
+        <v>154070</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7">
-        <v>11705</v>
+        <v>149264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>51</v>
+        <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>36214</v>
+        <v>303334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3916,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3931,10 +4638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3954,49 +4661,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>427</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>354571</v>
+        <v>21871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
-        <v>411</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>313233</v>
+        <v>16788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>838</v>
+        <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>667804</v>
+        <v>38659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>45926</v>
+        <v>180607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>37099</v>
+        <v>159325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>100</v>
+        <v>427</v>
       </c>
       <c r="N11" s="7">
-        <v>83025</v>
+        <v>339932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>400497</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4071,10 +4778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350332</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4086,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>938</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>750829</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4103,55 +4810,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>855</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>633940</v>
+        <v>36011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>852</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>591527</v>
+        <v>26404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
-        <v>1707</v>
+        <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>1225466</v>
+        <v>62414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="D14" s="7">
-        <v>89551</v>
+        <v>251200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
-        <v>89</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>60876</v>
+        <v>233753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
-        <v>209</v>
+        <v>608</v>
       </c>
       <c r="N14" s="7">
-        <v>150428</v>
+        <v>484954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,55 +4918,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>340</v>
+      </c>
+      <c r="D15" s="7">
+        <v>287211</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260157</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>681</v>
+      </c>
+      <c r="N15" s="7">
+        <v>547368</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>120</v>
+      </c>
+      <c r="D16" s="7">
+        <v>89551</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="7">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7">
+        <v>60876</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>209</v>
+      </c>
+      <c r="N16" s="7">
+        <v>150428</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>855</v>
+      </c>
+      <c r="D17" s="7">
+        <v>633940</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="7">
+        <v>852</v>
+      </c>
+      <c r="I17" s="7">
+        <v>591527</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1707</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1225466</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>975</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>723491</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>941</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652403</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1916</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1375894</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4D273A-BC1A-4791-BD4D-427D39031FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E88F7FC-2831-4271-BF31-3EABC526447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4897BCB5-BBA4-4F78-B1E8-94EF556ABC46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB9855B2-C69F-4DD6-BE16-BAE63BD41621}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
   <si>
     <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>12,79%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,21%</t>
   </si>
   <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,967 +140,985 @@
     <t>13,85%</t>
   </si>
   <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>85,84%</t>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>92,28%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>7,51%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>84,62%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>92,49%</t>
   </si>
   <si>
     <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DCE1B-32DB-43A5-B6E3-78C857C7A4E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74F542-542E-4C31-8F50-A5BA86F508CE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1976,13 +1994,13 @@
         <v>28737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +2015,13 @@
         <v>125782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>171</v>
@@ -2012,13 +2030,13 @@
         <v>113849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -2027,13 +2045,13 @@
         <v>239631</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2107,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2101,13 +2119,13 @@
         <v>17769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2116,13 +2134,13 @@
         <v>7874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2131,13 +2149,13 @@
         <v>25643</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2170,13 @@
         <v>188280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -2167,13 +2185,13 @@
         <v>186223</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>557</v>
@@ -2182,13 +2200,13 @@
         <v>374503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2274,13 @@
         <v>83478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -2271,13 +2289,13 @@
         <v>56243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>207</v>
@@ -2286,13 +2304,13 @@
         <v>139721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2325,13 @@
         <v>638527</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>935</v>
@@ -2322,13 +2340,13 @@
         <v>624778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1896</v>
@@ -2337,13 +2355,13 @@
         <v>1263305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,7 +2417,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AB69E7-B120-48BC-B11E-1773C8E1F260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77656001-A57A-4029-9898-6F72FED2B624}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2436,7 +2454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2543,13 +2561,13 @@
         <v>24939</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2558,13 +2576,13 @@
         <v>21008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -2573,13 +2591,13 @@
         <v>45947</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2612,13 @@
         <v>121051</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -2609,13 +2627,13 @@
         <v>125019</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>358</v>
@@ -2624,13 +2642,13 @@
         <v>246070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2716,13 @@
         <v>38421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -2713,13 +2731,13 @@
         <v>28288</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -2728,13 +2746,13 @@
         <v>66709</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2767,13 @@
         <v>230570</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>298</v>
@@ -2764,13 +2782,13 @@
         <v>207962</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>619</v>
@@ -2779,13 +2797,13 @@
         <v>438532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2871,13 @@
         <v>14961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -2868,13 +2886,13 @@
         <v>20199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -2883,13 +2901,13 @@
         <v>35160</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2922,13 @@
         <v>143610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>195</v>
@@ -2919,13 +2937,13 @@
         <v>136844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -2934,13 +2952,13 @@
         <v>280454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +3014,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3029,7 +3047,7 @@
         <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3038,13 +3056,13 @@
         <v>37473</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3077,13 @@
         <v>155857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -3074,13 +3092,13 @@
         <v>157962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -3089,13 +3107,13 @@
         <v>313819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3181,13 @@
         <v>102419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -3178,13 +3196,13 @@
         <v>82869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -3193,13 +3211,13 @@
         <v>185289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3232,13 @@
         <v>651088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>902</v>
@@ -3229,13 +3247,13 @@
         <v>627788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1832</v>
@@ -3244,13 +3262,13 @@
         <v>1278875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3324,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0DFFAE-FEEB-4ED6-ACA3-CBCB6B1DF861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6C5988-ABAA-4E17-ADBB-824309C67FB0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3450,13 +3468,13 @@
         <v>12631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3465,13 +3483,13 @@
         <v>9682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -3480,13 +3498,13 @@
         <v>22313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,28 +3519,28 @@
         <v>111533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>121496</v>
+        <v>121495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -3531,13 +3549,13 @@
         <v>233028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3582,7 @@
         <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>131178</v>
+        <v>131177</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3605,13 +3623,13 @@
         <v>21069</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3620,13 +3638,13 @@
         <v>18516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3635,13 +3653,13 @@
         <v>39585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3674,13 @@
         <v>233919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
         <v>302</v>
@@ -3671,13 +3689,13 @@
         <v>191100</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -3686,10 +3704,10 @@
         <v>425019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>226</v>
@@ -3903,7 +3921,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3951,7 +3969,7 @@
         <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3984,13 @@
         <v>162232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -3981,13 +3999,13 @@
         <v>161990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>449</v>
@@ -3996,13 +4014,13 @@
         <v>324222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4088,13 @@
         <v>51447</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -4088,10 +4106,10 @@
         <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4100,13 +4118,13 @@
         <v>99093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4139,13 @@
         <v>690325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>985</v>
@@ -4136,13 +4154,13 @@
         <v>654581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>1972</v>
@@ -4151,13 +4169,13 @@
         <v>1344907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4231,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FDD337-7AFF-431B-8BB0-AE9C83AB3017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE9B97C-CB9A-4CFB-B147-05EFBDC16202}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4250,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4357,13 +4375,13 @@
         <v>10441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4372,13 +4390,13 @@
         <v>8184</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -4387,13 +4405,13 @@
         <v>18625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4426,13 @@
         <v>48062</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -4423,13 +4441,13 @@
         <v>49185</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
@@ -4438,13 +4456,13 @@
         <v>97246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4530,13 @@
         <v>21229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4527,13 +4545,13 @@
         <v>9501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -4542,13 +4560,13 @@
         <v>30729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4581,13 @@
         <v>154070</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -4578,13 +4596,13 @@
         <v>149264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -4593,13 +4611,13 @@
         <v>303334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4685,13 @@
         <v>21871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4682,13 +4700,13 @@
         <v>16788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -4697,13 +4715,13 @@
         <v>38659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4736,13 @@
         <v>180607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -4733,13 +4751,13 @@
         <v>159325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
@@ -4748,13 +4766,13 @@
         <v>339932</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4828,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4822,13 +4840,13 @@
         <v>36011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4837,13 +4855,13 @@
         <v>26404</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4852,13 +4870,13 @@
         <v>62414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4891,13 @@
         <v>251200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4888,13 +4906,13 @@
         <v>233753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
@@ -4903,13 +4921,13 @@
         <v>484954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4995,13 @@
         <v>89551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4992,13 +5010,13 @@
         <v>60876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -5007,13 +5025,13 @@
         <v>150428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5046,13 @@
         <v>633940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>852</v>
@@ -5043,13 +5061,13 @@
         <v>591527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>1707</v>
@@ -5058,13 +5076,13 @@
         <v>1225466</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5138,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E88F7FC-2831-4271-BF31-3EABC526447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E68E53-F471-4D44-827F-07FBBC9B27F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB9855B2-C69F-4DD6-BE16-BAE63BD41621}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{773DB275-CF9B-439E-963E-107503361A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="360">
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2007 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,988 +137,982 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74F542-542E-4C31-8F50-A5BA86F508CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40808D14-D31C-43D5-9337-209C1C1D5E9A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1648,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>15530</v>
+        <v>10005</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1663,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>10005</v>
+        <v>15530</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1699,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>105850</v>
+        <v>96166</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1714,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>96166</v>
+        <v>105850</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1750,25 +1744,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1803,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>35141</v>
+        <v>24665</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1818,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>24665</v>
+        <v>35141</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1854,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D8" s="7">
-        <v>218615</v>
+        <v>228540</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1869,10 +1863,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="I8" s="7">
-        <v>228540</v>
+        <v>218615</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1905,25 +1899,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1958,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>15038</v>
+        <v>13699</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1973,10 +1967,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>13699</v>
+        <v>15038</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2009,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>125782</v>
+        <v>113849</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2024,10 +2018,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>113849</v>
+        <v>125782</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2060,25 +2054,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>211</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>140820</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2113,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>17769</v>
+        <v>7874</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2128,10 +2122,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>7874</v>
+        <v>17769</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2164,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>188280</v>
+        <v>186223</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2179,10 +2173,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>186223</v>
+        <v>188280</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2215,25 +2209,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2268,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>83478</v>
+        <v>56243</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2283,10 +2277,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>56243</v>
+        <v>83478</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2319,10 +2313,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="D17" s="7">
-        <v>638527</v>
+        <v>624778</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2334,10 +2328,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>935</v>
+        <v>961</v>
       </c>
       <c r="I17" s="7">
-        <v>624778</v>
+        <v>638527</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2370,25 +2364,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1085</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722005</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2437,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77656001-A57A-4029-9898-6F72FED2B624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08869188-E9CD-441F-B61F-58A2FE25D393}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2555,10 +2549,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>24939</v>
+        <v>21008</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2570,10 +2564,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>21008</v>
+        <v>24939</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2606,10 +2600,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>121051</v>
+        <v>125019</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2621,10 +2615,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I5" s="7">
-        <v>125019</v>
+        <v>121051</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2657,25 +2651,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146027</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>207</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145990</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146027</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2710,10 +2704,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>38421</v>
+        <v>28288</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2725,10 +2719,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>28288</v>
+        <v>38421</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2761,10 +2755,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>230570</v>
+        <v>207962</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2776,10 +2770,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>207962</v>
+        <v>230570</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2812,25 +2806,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2865,10 +2859,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>14961</v>
+        <v>20199</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2880,10 +2874,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>20199</v>
+        <v>14961</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2904,10 +2898,10 @@
         <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,34 +2910,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>195</v>
+      </c>
+      <c r="D11" s="7">
+        <v>136844</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
         <v>207</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>143610</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="7">
-        <v>195</v>
-      </c>
-      <c r="I11" s="7">
-        <v>136844</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -2952,13 +2946,13 @@
         <v>280454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,25 +2961,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3020,34 +3014,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13375</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
         <v>35</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>24098</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13375</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3056,13 +3050,13 @@
         <v>37473</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,34 +3065,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>223</v>
+      </c>
+      <c r="D14" s="7">
+        <v>157962</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>230</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>155857</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="7">
-        <v>223</v>
-      </c>
-      <c r="I14" s="7">
-        <v>157962</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -3107,13 +3101,13 @@
         <v>313819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,25 +3116,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3175,34 +3169,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7">
+        <v>82869</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="7">
         <v>144</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>102419</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="7">
-        <v>122</v>
-      </c>
-      <c r="I16" s="7">
-        <v>82869</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -3211,10 +3205,10 @@
         <v>185289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>186</v>
@@ -3226,34 +3220,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>930</v>
+        <v>902</v>
       </c>
       <c r="D17" s="7">
-        <v>651088</v>
+        <v>627788</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>930</v>
+      </c>
+      <c r="I17" s="7">
+        <v>651088</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="7">
-        <v>902</v>
-      </c>
-      <c r="I17" s="7">
-        <v>627788</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1832</v>
@@ -3262,13 +3256,13 @@
         <v>1278875</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,25 +3271,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D18" s="7">
+        <v>710657</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1074</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>753507</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I18" s="7">
-        <v>710657</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3344,7 +3338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6C5988-ABAA-4E17-ADBB-824309C67FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFE98F3-A96C-463F-AB43-7081F64EDF7F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3462,34 +3456,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9682</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>12631</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9682</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -3498,13 +3492,13 @@
         <v>22313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,34 +3507,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>194</v>
+      </c>
+      <c r="D5" s="7">
+        <v>121495</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7">
         <v>168</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>111533</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="7">
-        <v>194</v>
-      </c>
-      <c r="I5" s="7">
-        <v>121495</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>362</v>
@@ -3549,13 +3543,13 @@
         <v>233028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,25 +3558,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>210</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131177</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>210</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131177</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3617,34 +3611,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18516</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7">
         <v>31</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>21069</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="7">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7">
-        <v>18516</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3653,10 +3647,10 @@
         <v>39585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>51</v>
@@ -3668,34 +3662,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>302</v>
+      </c>
+      <c r="D8" s="7">
+        <v>191100</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="7">
         <v>345</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>233919</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="7">
-        <v>302</v>
-      </c>
-      <c r="I8" s="7">
-        <v>191100</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -3704,13 +3698,13 @@
         <v>425019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,25 +3713,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>331</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209616</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>376</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>254988</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>331</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209616</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3772,34 +3766,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8903</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5931</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8903</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3808,13 +3802,13 @@
         <v>14834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,34 +3817,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>259</v>
+      </c>
+      <c r="D11" s="7">
+        <v>179996</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="7">
         <v>255</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>182641</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" s="7">
-        <v>259</v>
-      </c>
-      <c r="I11" s="7">
-        <v>179996</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>514</v>
@@ -3859,13 +3853,13 @@
         <v>362637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,25 +3868,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3927,34 +3921,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10545</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11816</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10545</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3963,13 +3957,13 @@
         <v>22361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,34 +3972,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>230</v>
+      </c>
+      <c r="D14" s="7">
+        <v>161990</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
         <v>219</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>162232</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="7">
-        <v>230</v>
-      </c>
-      <c r="I14" s="7">
-        <v>161990</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>449</v>
@@ -4014,13 +4008,13 @@
         <v>324222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,25 +4023,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172535</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4082,34 +4076,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47647</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="7">
         <v>74</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>51447</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="7">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47647</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4118,13 +4112,13 @@
         <v>99093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,34 +4127,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>985</v>
+      </c>
+      <c r="D17" s="7">
+        <v>654581</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
         <v>987</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>690325</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="7">
-        <v>985</v>
-      </c>
-      <c r="I17" s="7">
-        <v>654581</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>1972</v>
@@ -4169,13 +4163,13 @@
         <v>1344907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,25 +4178,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D18" s="7">
+        <v>702228</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>741772</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I18" s="7">
-        <v>702228</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4251,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE9B97C-CB9A-4CFB-B147-05EFBDC16202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CB96B6-C4D4-49CF-BE04-0F18C8C44C4A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4369,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8173</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
-        <v>10441</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>11449</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8184</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>18625</v>
+        <v>19622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,49 +4414,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>95</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49338</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="7">
         <v>97</v>
       </c>
-      <c r="D5" s="7">
-        <v>48062</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>49995</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="7">
-        <v>95</v>
-      </c>
-      <c r="I5" s="7">
-        <v>49185</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
       </c>
       <c r="N5" s="7">
-        <v>97246</v>
+        <v>99333</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,25 +4465,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4504,7 +4498,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4524,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9292</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="7">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
-        <v>21229</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>22659</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9501</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>30729</v>
+        <v>31950</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>241</v>
+      </c>
+      <c r="D8" s="7">
+        <v>150007</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="7">
         <v>239</v>
       </c>
-      <c r="D8" s="7">
-        <v>154070</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>159895</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H8" s="7">
-        <v>241</v>
-      </c>
-      <c r="I8" s="7">
-        <v>149264</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>303334</v>
+        <v>309903</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,25 +4620,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4659,7 +4653,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4679,49 +4673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16738</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="7">
         <v>27</v>
       </c>
-      <c r="D10" s="7">
-        <v>21871</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>23429</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16788</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
       </c>
       <c r="N10" s="7">
-        <v>38659</v>
+        <v>40167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>211</v>
+      </c>
+      <c r="D11" s="7">
+        <v>156334</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="7">
         <v>216</v>
       </c>
-      <c r="D11" s="7">
-        <v>180607</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>189061</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="H11" s="7">
-        <v>211</v>
-      </c>
-      <c r="I11" s="7">
-        <v>159325</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>427</v>
       </c>
       <c r="N11" s="7">
-        <v>339932</v>
+        <v>345396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,25 +4775,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4814,7 +4808,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4834,49 +4828,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>29346</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="7">
         <v>37</v>
       </c>
-      <c r="D13" s="7">
-        <v>36011</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
       <c r="I13" s="7">
-        <v>26404</v>
+        <v>41492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>62414</v>
+        <v>70838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>305</v>
+      </c>
+      <c r="D14" s="7">
+        <v>245668</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="7">
         <v>303</v>
       </c>
-      <c r="D14" s="7">
-        <v>251200</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H14" s="7">
-        <v>305</v>
-      </c>
       <c r="I14" s="7">
-        <v>233753</v>
+        <v>262003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
       </c>
       <c r="N14" s="7">
-        <v>484954</v>
+        <v>507671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,25 +4930,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>275014</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>340</v>
       </c>
-      <c r="D15" s="7">
-        <v>287211</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>260157</v>
+        <v>303495</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4969,7 +4963,7 @@
         <v>681</v>
       </c>
       <c r="N15" s="7">
-        <v>547368</v>
+        <v>578509</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4989,49 +4983,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7">
+        <v>63548</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H16" s="7">
         <v>120</v>
       </c>
-      <c r="D16" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H16" s="7">
-        <v>89</v>
-      </c>
       <c r="I16" s="7">
-        <v>60876</v>
+        <v>99029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
       </c>
       <c r="N16" s="7">
-        <v>150428</v>
+        <v>162578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>852</v>
+      </c>
+      <c r="D17" s="7">
+        <v>601348</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" s="7">
         <v>855</v>
       </c>
-      <c r="D17" s="7">
-        <v>633940</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>660955</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H17" s="7">
-        <v>852</v>
-      </c>
-      <c r="I17" s="7">
-        <v>591527</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>1707</v>
       </c>
       <c r="N17" s="7">
-        <v>1225466</v>
+        <v>1262303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>152</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,25 +5085,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>941</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664896</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>975</v>
       </c>
-      <c r="D18" s="7">
-        <v>723491</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
       <c r="I18" s="7">
-        <v>652403</v>
+        <v>759984</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5124,7 +5118,7 @@
         <v>1916</v>
       </c>
       <c r="N18" s="7">
-        <v>1375894</v>
+        <v>1424881</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
